--- a/7rmartFinalProject/src/test/resources/TestDataProject.xlsx
+++ b/7rmartFinalProject/src/test/resources/TestDataProject.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asish\New_Workspace\7rmartFinalProject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asish\git\AutomationProject\7rmartFinalProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EBF434-28DE-4261-AB71-B12CD7FEAEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2596EEA3-5CE3-4C43-A102-E6AAB68818A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/7rmartFinalProject/src/test/resources/TestDataProject.xlsx
+++ b/7rmartFinalProject/src/test/resources/TestDataProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asish\git\AutomationProject\7rmartFinalProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2596EEA3-5CE3-4C43-A102-E6AAB68818A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F295765-3655-477E-AB2C-9F26776B7D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
